--- a/R1_by_R2 (2.5 by 1).xlsx
+++ b/R1_by_R2 (2.5 by 1).xlsx
@@ -65,252 +65,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.2619260387474394</v>
+        <v>1.2619507560064334</v>
       </c>
       <c r="B1" t="n">
-        <v>1.2619113105348134</v>
+        <v>1.261950484001783</v>
       </c>
       <c r="C1" t="n">
-        <v>1.2618879690228961</v>
+        <v>1.2619500529038508</v>
       </c>
       <c r="D1" t="n">
-        <v>1.2618509780627614</v>
+        <v>1.2619493696606425</v>
       </c>
       <c r="E1" t="n">
-        <v>1.26179235848257</v>
+        <v>1.261948286795569</v>
       </c>
       <c r="F1" t="n">
-        <v>1.2616994706412523</v>
+        <v>1.261946570576205</v>
       </c>
       <c r="G1" t="n">
-        <v>1.2615522983603016</v>
+        <v>1.2619438505671887</v>
       </c>
       <c r="H1" t="n">
-        <v>1.26131915904606</v>
+        <v>1.2619395396820248</v>
       </c>
       <c r="I1" t="n">
-        <v>1.260949941781927</v>
+        <v>1.2619327074864553</v>
       </c>
       <c r="J1" t="n">
-        <v>1.2603654832497586</v>
+        <v>1.261921879429804</v>
       </c>
       <c r="K1" t="n">
-        <v>1.2594409615001063</v>
+        <v>1.2619047187283887</v>
       </c>
       <c r="L1" t="n">
-        <v>1.2579801537271251</v>
+        <v>1.2618775223863483</v>
       </c>
       <c r="M1" t="n">
-        <v>1.2556760654521542</v>
+        <v>1.2618344229488456</v>
       </c>
       <c r="N1" t="n">
-        <v>1.2520520357250604</v>
+        <v>1.2617661246375307</v>
       </c>
       <c r="O1" t="n">
-        <v>1.2463768751412074</v>
+        <v>1.2616579034516284</v>
       </c>
       <c r="P1" t="n">
-        <v>1.237550445812436</v>
+        <v>1.2614864455495096</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.2239682013402577</v>
+        <v>1.261214856501306</v>
       </c>
       <c r="R1" t="n">
-        <v>1.203405502298464</v>
+        <v>1.2607848017896983</v>
       </c>
       <c r="S1" t="n">
-        <v>1.1730283940908042</v>
+        <v>1.260104176154473</v>
       </c>
       <c r="T1" t="n">
-        <v>1.1297320342600248</v>
+        <v>1.2590278746960446</v>
       </c>
       <c r="U1" t="n">
-        <v>1.0710495849949142</v>
+        <v>1.2573280970633933</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9966457444371005</v>
+        <v>1.2546492085246843</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9097230082203114</v>
+        <v>1.2504409067810165</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8169820103206741</v>
+        <v>1.243863620843188</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7263621617885861</v>
+        <v>1.233665120422974</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6438388758727489</v>
+        <v>1.2180446482764493</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.571677464706241</v>
+        <v>1.1945630332576311</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5090845762902193</v>
+        <v>1.1602353244666304</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4541076558901889</v>
+        <v>1.1120346156014576</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4051410289673899</v>
+        <v>1.0480178286473767</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.3613137388400811</v>
+        <v>0.968908809501045</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3221433796613858</v>
+        <v>0.879185246747894</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.2871964295684979</v>
+        <v>0.7863034816478822</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.2560291881261607</v>
+        <v>0.6978796554974659</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.22823318475017831</v>
+        <v>0.6187285143131225</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.20344651154041654</v>
+        <v>0.5499295777321159</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.18134584187750513</v>
+        <v>0.4900849690239083</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1616417646775711</v>
+        <v>0.4372426507907176</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.14407558994385125</v>
+        <v>0.3900497502796726</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.12841621679051898</v>
+        <v>0.34781535315738615</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1144572821995333</v>
+        <v>0.3100963918526722</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.27645234866385004</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.24644706281503728</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.2196881050820553</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.19582717922624995</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.17455258071334925</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.15558545394110365</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.13867660185671013</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.12360343754144637</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.1101672268910059</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-52.428986167064025</v>
+        <v>-385.77827991075026</v>
       </c>
       <c r="B2" t="n">
-        <v>-41.64800773444435</v>
+        <v>-306.4348768481817</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.084937458464225</v>
+        <v>-243.41024839789577</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.283760496704392</v>
+        <v>-193.3481032741309</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.88228912631852</v>
+        <v>-153.5824496958856</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.592874803583275</v>
+        <v>-121.99562160268142</v>
       </c>
       <c r="G2" t="n">
-        <v>-13.187089583890824</v>
+        <v>-96.90550521411473</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.483561010393746</v>
+        <v>-76.9759603359556</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.338312393387234</v>
+        <v>-61.14566602008</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.637093587061897</v>
+        <v>-48.57160134893691</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.289292907026508</v>
+        <v>-38.58415148778454</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.223104130801345</v>
+        <v>-30.651448233401695</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.381687634773387</v>
+        <v>-24.3510460537515</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.7201144473483816</v>
+        <v>-19.347425245070948</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.202917970016695</v>
+        <v>-15.37412412890094</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.8021011046128708</v>
+        <v>-12.219548686613487</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.495457819401477</v>
+        <v>-9.715703790061655</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.2650741094047113</v>
+        <v>-7.729245622348108</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.095895888652536</v>
+        <v>-6.154378198285608</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.974343116930546</v>
+        <v>-4.907214519271462</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.8871818817388764</v>
+        <v>-3.921299772458585</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.8212072599030815</v>
+        <v>-3.144053737175269</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.7643542432155073</v>
+        <v>-2.533934594907381</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7080070312186797</v>
+        <v>-2.0581579359583593</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.648807061777371</v>
+        <v>-1.6908236086654036</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.5881051665455155</v>
+        <v>-1.411311386755236</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.5292781883971931</v>
+        <v>-1.2028142188442783</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.4750157381000898</v>
+        <v>-1.0509157854859823</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.42622383049661616</v>
+        <v>-0.9422505592087876</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.3825062109121954</v>
+        <v>-0.8635686214505605</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.3431393164827605</v>
+        <v>-0.8018424061624357</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3076026646240657</v>
+        <v>-0.7458736638432722</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.2755618137121753</v>
+        <v>-0.6886817526089598</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.24672290667964247</v>
+        <v>-0.6286680038868213</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.2207952347513973</v>
+        <v>-0.5682040213366708</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.19750585529630202</v>
+        <v>-0.5106778455886222</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.17660382354018336</v>
+        <v>-0.4582149988336723</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.15785852273382697</v>
+        <v>-0.4111858558491155</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.14105868882537317</v>
+        <v>-0.3689870030528412</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1260114348275678</v>
+        <v>-0.33093662576435634</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.11254114167726607</v>
+        <v>-0.2965933960141572</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2656480864230293</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.23780719851611806</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2127844680349582</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.19031437718121405</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.17015288318297744</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.15207588758202786</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.1358783447403643</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.12137322578229946</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.10839038993789725</v>
       </c>
     </row>
   </sheetData>
@@ -328,252 +382,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0423588131256716</v>
+        <v>1.041679485859367</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0427617366062973</v>
+        <v>1.0416869830623277</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0433974631696659</v>
+        <v>1.0416988643372296</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0443978893330599</v>
+        <v>1.0417176923999774</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0459657841129089</v>
+        <v>1.0417475266180527</v>
       </c>
       <c r="F1" t="n">
-        <v>1.0484072767966708</v>
+        <v>1.0417947949732107</v>
       </c>
       <c r="G1" t="n">
-        <v>1.0521712419560278</v>
+        <v>1.0418696708712083</v>
       </c>
       <c r="H1" t="n">
-        <v>1.0578851638587705</v>
+        <v>1.041988242313226</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0663584271476827</v>
+        <v>1.0421759174595646</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0784942464726361</v>
+        <v>1.04247274134063</v>
       </c>
       <c r="K1" t="n">
-        <v>1.0950284219252506</v>
+        <v>1.0429416214094553</v>
       </c>
       <c r="L1" t="n">
-        <v>1.1160563003956003</v>
+        <v>1.043680867294903</v>
       </c>
       <c r="M1" t="n">
-        <v>1.1404947175868674</v>
+        <v>1.0448428469382025</v>
       </c>
       <c r="N1" t="n">
-        <v>1.1658783391440932</v>
+        <v>1.0466606112535417</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1888371158405602</v>
+        <v>1.0494831403493208</v>
       </c>
       <c r="P1" t="n">
-        <v>1.2060136811420705</v>
+        <v>1.0538153841440658</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.2146560937592246</v>
+        <v>1.0603478134005726</v>
       </c>
       <c r="R1" t="n">
-        <v>1.212398671678446</v>
+        <v>1.0699375264426896</v>
       </c>
       <c r="S1" t="n">
-        <v>1.1964648423418016</v>
+        <v>1.0834718296395962</v>
       </c>
       <c r="T1" t="n">
-        <v>1.1629898152922251</v>
+        <v>1.101535209148658</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1074876263430242</v>
+        <v>1.1238849992245346</v>
       </c>
       <c r="V1" t="n">
-        <v>1.0277109245052978</v>
+        <v>1.1489717180410288</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9284082881417142</v>
+        <v>1.1739427230428507</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8226167476112217</v>
+        <v>1.1953295138079405</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7245814320331586</v>
+        <v>1.20994690265825</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6410668246446798</v>
+        <v>1.215234862341452</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.570758058752064</v>
+        <v>1.2087907746051856</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5095647840283627</v>
+        <v>1.1875206294887828</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.45476964129276043</v>
+        <v>1.147207603344631</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.405521868249515</v>
+        <v>1.0836504415696386</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.3615196897469768</v>
+        <v>0.996407863549433</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.322291945899396</v>
+        <v>0.8932294398586026</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.28730895729529243</v>
+        <v>0.7886790567923055</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.25611048644188983</v>
+        <v>0.6951893843017914</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.228291558332644</v>
+        <v>0.6164628010647384</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.20348847529301078</v>
+        <v>0.5496150616341218</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.18137595390083797</v>
+        <v>0.49073484458846567</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.16166333908776667</v>
+        <v>0.43782044700501915</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.14409102724967657</v>
+        <v>0.3903526797012065</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.12842724984647402</v>
+        <v>0.3479955602601106</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.11446515933363861</v>
+        <v>0.31023266292009405</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.2765536736702601</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.24651986651200164</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.21974042757369408</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.1958647730935394</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.17457954187692248</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.1556047622243988</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.13869041208346128</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.12361330418031127</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.11017426900290522</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-52.41554810957024</v>
+        <v>-385.77644865764717</v>
       </c>
       <c r="B2" t="n">
-        <v>-41.63111836980499</v>
+        <v>-306.4325715082726</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.063730924539676</v>
+        <v>-243.40734628886827</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.25717385177967</v>
+        <v>-193.3444500185532</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.84903720057978</v>
+        <v>-153.5778510845957</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.55144200853509</v>
+        <v>-121.98983342101397</v>
       </c>
       <c r="G2" t="n">
-        <v>-13.13576186650968</v>
+        <v>-96.89822057252434</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.420537385804177</v>
+        <v>-76.96679399605661</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.261952581954827</v>
+        <v>-61.13413521017323</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.546357914199855</v>
+        <v>-48.557102697474704</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.184371512972816</v>
+        <v>-38.565934125066384</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.106069087314386</v>
+        <v>-30.62858412282073</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.256778511934083</v>
+        <v>-24.322400770243576</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.593236092496763</v>
+        <v>-19.311636672783496</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.080367568376217</v>
+        <v>-15.329604325972749</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.6892039715665044</v>
+        <v>-12.164536966880622</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.3959353186726153</v>
+        <v>-9.648416539747126</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.1813866163631275</v>
+        <v>-7.648182717211493</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.0301037518848741</v>
+        <v>-6.058831724106193</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.9286161650007734</v>
+        <v>-4.797935207342786</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.8629318224117148</v>
+        <v>-3.801079623199111</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.8164963003817218</v>
+        <v>-3.0177858747765343</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.7718334813784595</v>
+        <v>-2.4078187165998153</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.717520428280904</v>
+        <v>-1.9382974384604836</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6536948588981092</v>
+        <v>-1.5820307513787026</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.5880401231979675</v>
+        <v>-1.3168108429681467</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.5272887408235397</v>
+        <v>-1.124834943010161</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.47346356642188786</v>
+        <v>-0.9915450597901283</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.4255291330222275</v>
+        <v>-0.9035961497636805</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.3821926056611939</v>
+        <v>-0.8462725076834956</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.3429045622132443</v>
+        <v>-0.8022434866381525</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3074153436257515</v>
+        <v>-0.7551106200393346</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.27542816925584435</v>
+        <v>-0.6970779401123204</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.24662909736631053</v>
+        <v>-0.6316860900883466</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.22072869635297754</v>
+        <v>-0.5671339854725777</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.19745866380550878</v>
+        <v>-0.5086723304872208</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.1765703787641471</v>
+        <v>-0.45697612805328924</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.15783482407031205</v>
+        <v>-0.4106740310079339</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.14104189914114137</v>
+        <v>-0.3687145510031154</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1259995416220666</v>
+        <v>-0.33071577150473086</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.11253271793559506</v>
+        <v>-0.29642461497240247</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.265529431685013</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2377235382026706</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.21272509104782286</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.1902722817716337</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.17012305169149972</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.15205475053534862</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.13586337064200316</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.12136261910876284</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.10838287767366897</v>
       </c>
     </row>
   </sheetData>
@@ -591,252 +699,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.4159471427409749</v>
+        <v>1.4166533540295616</v>
       </c>
       <c r="B1" t="n">
-        <v>1.415527592771857</v>
+        <v>1.4166455680013637</v>
       </c>
       <c r="C1" t="n">
-        <v>1.414864603414738</v>
+        <v>1.416633228647435</v>
       </c>
       <c r="D1" t="n">
-        <v>1.4138187260485926</v>
+        <v>1.4166136737701536</v>
       </c>
       <c r="E1" t="n">
-        <v>1.4121733467254978</v>
+        <v>1.4165826855997856</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4095960685097026</v>
+        <v>1.4165335832620465</v>
       </c>
       <c r="G1" t="n">
-        <v>1.405586955787665</v>
+        <v>1.416455787927826</v>
       </c>
       <c r="H1" t="n">
-        <v>1.3994190127604194</v>
+        <v>1.4163325574923364</v>
       </c>
       <c r="I1" t="n">
-        <v>1.3900953948082568</v>
+        <v>1.4161374182679694</v>
       </c>
       <c r="J1" t="n">
-        <v>1.376391206173212</v>
+        <v>1.4158285647066797</v>
       </c>
       <c r="K1" t="n">
-        <v>1.35711984105356</v>
+        <v>1.41534012152678</v>
       </c>
       <c r="L1" t="n">
-        <v>1.3318042156578185</v>
+        <v>1.4145686398529826</v>
       </c>
       <c r="M1" t="n">
-        <v>1.3016976437067804</v>
+        <v>1.413352553659964</v>
       </c>
       <c r="N1" t="n">
-        <v>1.2702871227155503</v>
+        <v>1.4114417477584833</v>
       </c>
       <c r="O1" t="n">
-        <v>1.2417959255635236</v>
+        <v>1.4084545511023758</v>
       </c>
       <c r="P1" t="n">
-        <v>1.2180251975985723</v>
+        <v>1.4038222180628657</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.1967785949036491</v>
+        <v>1.3967307349463431</v>
       </c>
       <c r="R1" t="n">
-        <v>1.1734425964339876</v>
+        <v>1.38609552512689</v>
       </c>
       <c r="S1" t="n">
-        <v>1.1434451612585377</v>
+        <v>1.3706583346298937</v>
       </c>
       <c r="T1" t="n">
-        <v>1.1035900187902774</v>
+        <v>1.3493702504033802</v>
       </c>
       <c r="U1" t="n">
-        <v>1.0522042862069783</v>
+        <v>1.322212386862159</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9884671948138378</v>
+        <v>1.2911945154008746</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9118119634289051</v>
+        <v>1.2603377936722593</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8236114389133133</v>
+        <v>1.2334118360019783</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7307880979210082</v>
+        <v>1.2108960714599089</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.644174680406439</v>
+        <v>1.189508537987501</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.5703356670009495</v>
+        <v>1.1644145923004667</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5082881149937015</v>
+        <v>1.131418133975722</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.45405168350994396</v>
+        <v>1.0878592212490972</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.40521517644397087</v>
+        <v>1.0324503236021148</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.36130223449156335</v>
+        <v>0.9644610939256675</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.32211865310235005</v>
+        <v>0.883611995553997</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.2871856867818926</v>
+        <v>0.7927891253139593</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.25602293646674534</v>
+        <v>0.7008611045439288</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.22822896883084656</v>
+        <v>0.6181646271083713</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.20344383623119602</v>
+        <v>0.5486251111135163</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.18134413989610487</v>
+        <v>0.4895903108832292</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.16164068202481374</v>
+        <v>0.4372885515532267</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.14407490199783715</v>
+        <v>0.3900948583379404</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.12841577999092293</v>
+        <v>0.34779086093281214</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.11445700505629672</v>
+        <v>0.31007691961240574</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.27644388062519676</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.24644152393991223</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.2196844738683255</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.19582487794094106</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.1745511157972936</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.15558452250121116</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.13867601015175374</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.1236030619399113</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.11016698862837059</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-52.44132150682284</v>
+        <v>-385.7799606319134</v>
       </c>
       <c r="B2" t="n">
-        <v>-41.66351254807436</v>
+        <v>-306.4369926891493</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.10440817134507</v>
+        <v>-243.41291196092448</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.308175872032095</v>
+        <v>-193.35145625604713</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.91283423117254</v>
+        <v>-153.58667036070574</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.630949158750905</v>
+        <v>-122.00093412872067</v>
       </c>
       <c r="G2" t="n">
-        <v>-13.234275865577812</v>
+        <v>-96.91219134097216</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.5415101192533</v>
+        <v>-76.9843737874716</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.408470607587066</v>
+        <v>-61.15625018457044</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.720169653416238</v>
+        <v>-48.58491058872758</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.384390118974658</v>
+        <v>-38.60087608495762</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.326657704934427</v>
+        <v>-30.672442076375052</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.4868911071031383</v>
+        <v>-24.377354185963558</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.8180391475661235</v>
+        <v>-19.380304321681702</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.285676473324568</v>
+        <v>-15.41504089871965</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.8658728971009646</v>
+        <v>-12.270127139102346</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.5406279502218991</v>
+        <v>-9.777567705100926</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.293943157600188</v>
+        <v>-7.803671381077795</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.1105803588338141</v>
+        <v>-6.241654000165413</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.9764284126320522</v>
+        <v>-5.005672668916696</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.8791035696847015</v>
+        <v>-4.02630561467322</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.8080590838106919</v>
+        <v>-3.247858051524429</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.7534212319163216</v>
+        <v>-2.6275410755503428</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7043138165548106</v>
+        <v>-2.1347998491727043</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6509870942135889</v>
+        <v>-1.7482273273759537</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.591131830261047</v>
+        <v>-1.450795183948706</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.5303631742480404</v>
+        <v>-1.2267780514674216</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.47474791273110234</v>
+        <v>-1.0612411883549702</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.42591419998713986</v>
+        <v>-0.9405902567264358</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.38248327527379317</v>
+        <v>-0.8530863652682799</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.3431760715920598</v>
+        <v>-0.7886104245709479</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3076079963100609</v>
+        <v>-0.7370659494127108</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.2755609658711981</v>
+        <v>-0.6873992774664641</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.24672353297448663</v>
+        <v>-0.6316713076117967</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.22079561557499408</v>
+        <v>-0.5706934934064378</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.1975060494422456</v>
+        <v>-0.5111516336650743</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.17660393647319647</v>
+        <v>-0.45782628537651016</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.1578585870355175</v>
+        <v>-0.4109831778692348</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.14105872541123154</v>
+        <v>-0.369008815976994</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.12601145561964947</v>
+        <v>-0.33096269465214756</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.11254115348007267</v>
+        <v>-0.2965939599022759</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2656479310805516</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.23780781192004452</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.21278476139473115</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.19031453976465545</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.17015297692056394</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.1520759409081819</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.13587837507295814</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.12137324301358189</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.10839039971598557</v>
       </c>
     </row>
   </sheetData>
